--- a/5/9/Índice diario de incertidumbre económica 2012 a 2021 - Mensual.xlsx
+++ b/5/9/Índice diario de incertidumbre económica 2012 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="118">
   <si>
     <t>Serie</t>
   </si>
@@ -365,6 +365,9 @@
   </si>
   <si>
     <t>01-07-2021</t>
+  </si>
+  <si>
+    <t>01-08-2021</t>
   </si>
 </sst>
 </file>
@@ -722,7 +725,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B116"/>
+  <dimension ref="A1:B117"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1653,7 +1656,15 @@
         <v>116</v>
       </c>
       <c r="B116">
-        <v>230.8109</v>
+        <v>230.8219</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2">
+      <c r="A117" t="s">
+        <v>117</v>
+      </c>
+      <c r="B117">
+        <v>168.6209</v>
       </c>
     </row>
   </sheetData>

--- a/5/9/Índice diario de incertidumbre económica 2012 a 2021 - Mensual.xlsx
+++ b/5/9/Índice diario de incertidumbre económica 2012 a 2021 - Mensual.xlsx
@@ -1664,7 +1664,7 @@
         <v>117</v>
       </c>
       <c r="B117">
-        <v>168.6209</v>
+        <v>168.6265</v>
       </c>
     </row>
   </sheetData>

--- a/5/9/Índice diario de incertidumbre económica 2012 a 2021 - Mensual.xlsx
+++ b/5/9/Índice diario de incertidumbre económica 2012 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="119">
   <si>
     <t>Serie</t>
   </si>
@@ -368,6 +368,9 @@
   </si>
   <si>
     <t>01-08-2021</t>
+  </si>
+  <si>
+    <t>01-09-2021</t>
   </si>
 </sst>
 </file>
@@ -725,7 +728,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B117"/>
+  <dimension ref="A1:B118"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1667,6 +1670,14 @@
         <v>168.6265</v>
       </c>
     </row>
+    <row r="118" spans="1:2">
+      <c r="A118" t="s">
+        <v>118</v>
+      </c>
+      <c r="B118">
+        <v>176.0702</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/5/9/Índice diario de incertidumbre económica 2012 a 2021 - Mensual.xlsx
+++ b/5/9/Índice diario de incertidumbre económica 2012 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="120">
   <si>
     <t>Serie</t>
   </si>
@@ -371,6 +371,9 @@
   </si>
   <si>
     <t>01-09-2021</t>
+  </si>
+  <si>
+    <t>01-10-2021</t>
   </si>
 </sst>
 </file>
@@ -728,7 +731,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B118"/>
+  <dimension ref="A1:B119"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1678,6 +1681,14 @@
         <v>176.0702</v>
       </c>
     </row>
+    <row r="119" spans="1:2">
+      <c r="A119" t="s">
+        <v>119</v>
+      </c>
+      <c r="B119">
+        <v>191.4251</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
